--- a/P5_5_PrediccionesAnuales.xlsx
+++ b/P5_5_PrediccionesAnuales.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,677 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Columna</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PrediccionLineal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PrediccionPolinómica</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>R² Lineal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R² Polinómica</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE Lineal</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE Polinómica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25.50908281389136</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25.52270703472841</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.3132386661303905</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.3150121716806717</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.00749870970407</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.0142539046267</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AveragePrice</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.264738037612926</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.153885692322914</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.590134640839554</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-3.951547183115441</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1144669774635165</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1582666850686099</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Volume</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1013206.961659064</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1245386.556970845</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8155816479449178</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.2156356273373863</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45509.37295701606</v>
+      </c>
+      <c r="G4" t="n">
+        <v>116842.4064825197</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4046</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>205815.4963170557</v>
+      </c>
+      <c r="C5" t="n">
+        <v>107187.540926186</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5.347641407126584</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-16.47956421828964</v>
+      </c>
+      <c r="F5" t="n">
+        <v>78827.8131352185</v>
+      </c>
+      <c r="G5" t="n">
+        <v>130809.2894792385</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>266283.747163687</v>
+      </c>
+      <c r="C6" t="n">
+        <v>218933.6499604996</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.9064313343074175</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-6.039481553241342</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24918.40572320526</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47882.85163065926</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4770</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>34551.97507210824</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43676.98762418085</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3.840864983818325</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-8.390499610226239</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11473.30813937234</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15979.80672157613</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total Bags</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>506555.7477366676</v>
+      </c>
+      <c r="C8" t="n">
+        <v>875588.3900361136</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1492270269576014</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-8.860750417277846</v>
+      </c>
+      <c r="F8" t="n">
+        <v>79663.63477567102</v>
+      </c>
+      <c r="G8" t="n">
+        <v>271211.598679923</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Small Bags</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>365009.1241918604</v>
+      </c>
+      <c r="C9" t="n">
+        <v>616984.8191281555</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1338601641325029</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-8.897763201013623</v>
+      </c>
+      <c r="F9" t="n">
+        <v>54858.12020258947</v>
+      </c>
+      <c r="G9" t="n">
+        <v>185445.1351307943</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Large Bags</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>132781.1938479214</v>
+      </c>
+      <c r="C10" t="n">
+        <v>242042.1026593336</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2075701586350153</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-8.586686651913535</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22948.31367808225</v>
+      </c>
+      <c r="G10" t="n">
+        <v>79818.69680883015</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>XLarge Bags</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8765.430765451969</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16561.47092004018</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.2710474015033124</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-11.7479618266078</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1880.37640519046</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5955.034702765141</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.58113883008419</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CalYear</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.58113883008419</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CalMonth</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6.2904137269676</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.062572778957463</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.2153732610790327</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.09189986166224351</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.146737916843222</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.034771255580043</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cal_AAAAMM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>201806.290413727</v>
+      </c>
+      <c r="C15" t="n">
+        <v>202106.062572779</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9996212332995623</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.104171951632541</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.14673791685615</v>
+      </c>
+      <c r="G15" t="n">
+        <v>160.0050704512422</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cal_AAAA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.58113883008419</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cal_MM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6.2904137269676</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.062572778957463</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.2153732610790327</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.09189986166224351</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.146737916843222</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.034771255580043</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cal_SS</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>26.56570655524351</v>
+      </c>
+      <c r="C18" t="n">
+        <v>26.63542023426263</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3201207099657066</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.3292399744492494</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10.03525992119168</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10.06986156385076</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cal_DDD</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>179.5560997328584</v>
+      </c>
+      <c r="C19" t="n">
+        <v>176.640249332146</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.280241166466265</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.2255826437296731</v>
+      </c>
+      <c r="F19" t="n">
+        <v>67.03947824016979</v>
+      </c>
+      <c r="G19" t="n">
+        <v>65.59277920617023</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cal_AAAADDD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2018179.556099733</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2021176.640249332</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9960958497830088</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.344847771085712</v>
+      </c>
+      <c r="F20" t="n">
+        <v>67.03947824017629</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1642.951308324746</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CalNOR_Z_TotalVolume</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04707261267106178</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1143038006569376</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8155816479449173</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.2156356273373843</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01317794186127278</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03383352350321641</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CalNOR_MM_TotalVolume</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01620851600866184</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01992305897142029</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8155816479449174</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.2156356273373858</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0007280851740224257</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.001869312151089726</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CalRegion_Total_Volume</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>287419501.7164686</v>
+      </c>
+      <c r="C23" t="n">
+        <v>287343126.6967271</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3.807811849657523</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-14.3156849601123</v>
+      </c>
+      <c r="F23" t="n">
+        <v>45500.33149287407</v>
+      </c>
+      <c r="G23" t="n">
+        <v>81209.91224283828</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CalRegion_Porcentaje</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.851523852371575</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.85103185315116</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.807811849649899</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-14.31568496007368</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0002931079782224427</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0005231450498956714</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CalRegion_Acumulado_Total_Volume</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>13672022393.86741</v>
+      </c>
+      <c r="C25" t="n">
+        <v>13671786071.55408</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3.807811849537475</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-14.31568495926161</v>
+      </c>
+      <c r="F25" t="n">
+        <v>140788.7504633201</v>
+      </c>
+      <c r="G25" t="n">
+        <v>251282.610359024</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CalRegion_Acumulado_Porcentaje</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>88.07361860008872</v>
+      </c>
+      <c r="C26" t="n">
+        <v>88.07209623853224</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.807811849843779</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-14.31568496052599</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0009069451727431129</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.001618734094248018</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/P5_5_PrediccionesAnuales.xlsx
+++ b/P5_5_PrediccionesAnuales.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/P5_5_PrediccionesAnuales.xlsx
+++ b/P5_5_PrediccionesAnuales.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
